--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\get_devices_info\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\infra_new_vlan\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB52E69-6374-4EA5-AF2B-11B037756ACF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60B96B-D432-4764-8FC8-909B35571ACE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466190F6-5552-4B8A-B6B3-430FE210C01A}"/>
+    <workbookView xWindow="5505" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,77 +32,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>ploor7-sw-lab</t>
-  </si>
-  <si>
-    <t>ptsw1-floor7</t>
-  </si>
-  <si>
-    <t>ptsw2-floor7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>192.168.211.254</t>
+  </si>
+  <si>
+    <t>Juniper Networks, Inc.</t>
+  </si>
+  <si>
+    <t>192.168.49.25</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>PTSWCORE1</t>
+  </si>
+  <si>
+    <t>Cellebrite_WiFi</t>
+  </si>
+  <si>
+    <t>10.9.106.44</t>
+  </si>
+  <si>
+    <t>PTSW2_Floor7</t>
+  </si>
+  <si>
+    <t>10.9.106.43</t>
+  </si>
+  <si>
+    <t>OOB-MGMT</t>
+  </si>
+  <si>
+    <t>Juniper EX3300</t>
+  </si>
+  <si>
+    <t>HILANTECH-36704-SILEBRTY-881-RT-1.comm.cellcom.co.il</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>PT-SW-DIST-Shaked</t>
+  </si>
+  <si>
+    <t>Cisco Nexus 3048TP1GESys</t>
+  </si>
+  <si>
+    <t>PTSWCORE2</t>
+  </si>
+  <si>
+    <t>10.9.106.45</t>
+  </si>
+  <si>
+    <t>10.9.107.254</t>
+  </si>
+  <si>
+    <t>Status Description</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Node status is Up.</t>
+  </si>
+  <si>
+    <t>Cisco AirCt2504K9</t>
   </si>
   <si>
     <t>10.9.106.30</t>
   </si>
   <si>
-    <t>ip address</t>
-  </si>
-  <si>
     <t>10.9.106.37</t>
   </si>
   <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Node status is Up, One or more interfaces are in an Unknown state.</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
     <t>10.9.106.38</t>
   </si>
   <si>
+    <t>Network Devices in israel for Cisco Devices</t>
+  </si>
+  <si>
+    <t>Machine Type</t>
+  </si>
+  <si>
+    <t>floor7_sw_lab</t>
+  </si>
+  <si>
+    <t>Juniper Networks EX3400-48P</t>
+  </si>
+  <si>
+    <t>oren-flr1sw-B1</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>10.9.106.11</t>
+  </si>
+  <si>
+    <t>Cisco 881 Router</t>
+  </si>
+  <si>
+    <t>QFX5100-48S</t>
+  </si>
+  <si>
+    <t>PTSW1_Floor7</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
     <t>junos</t>
   </si>
   <si>
-    <t>device_name</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ex3400</t>
+  </si>
+  <si>
+    <t>ex3300</t>
+  </si>
+  <si>
+    <t>qfx</t>
   </si>
   <si>
     <t>testing</t>
   </si>
   <si>
-    <t>ex3400</t>
-  </si>
-  <si>
-    <t>oren-flr1sw-B1</t>
-  </si>
-  <si>
-    <t>10.9.106.11</t>
-  </si>
-  <si>
-    <t>192.168.20.243</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>home-vsrx</t>
+    <t>access</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>backbone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,14 +225,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,44 +256,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -242,9 +343,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -300,239 +401,523 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C0010-5489-4B68-A2C5-E293CC4576B2}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I14" xr:uid="{F64965F6-A56A-4704-8363-1DA37AA83CC2}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\infra_new_vlan\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60B96B-D432-4764-8FC8-909B35571ACE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF69F9B-B69B-4356-B78B-9D670FC63124}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\infra_new_vlan\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF69F9B-B69B-4356-B78B-9D670FC63124}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DAD81-18A8-411B-A75A-976B2DD5838F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,9 +806,14 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\infra_new_vlan\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DAD81-18A8-411B-A75A-976B2DD5838F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89656CED-C8CD-49AE-9FB4-3A53CDEFD078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Caption</t>
   </si>
@@ -151,9 +151,6 @@
     <t>PTSW1_Floor7</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>junos</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>qfx</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
     <t>access</t>
   </si>
   <si>
@@ -179,6 +173,18 @@
   </si>
   <si>
     <t>backbone</t>
+  </si>
+  <si>
+    <t>nexus</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>cisco</t>
   </si>
 </sst>
 </file>
@@ -569,16 +575,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -592,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>30</v>
@@ -621,16 +627,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -650,16 +656,16 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -679,16 +685,16 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -708,16 +714,16 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -737,16 +743,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -766,16 +772,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -787,6 +793,35 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/library/network_devices.xlsx
+++ b/library/network_devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\infra_new_vlan\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127E9C4-9C13-4397-BA3E-0DE1677D963A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1F232-3E5D-4C3C-8699-A6BA1EE0B5F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
